--- a/Datos/Database by set/Set with text box/Xlsx sets/Rise of the Eldrazi Tokens (TROE).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Rise of the Eldrazi Tokens (TROE).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A26"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,175 +444,35 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Eldrazi Spawn</t>
+          <t>('Eldrazi Spawn', ['Token Creature — Eldrazi Spawn', 'Sacrifice this creature: Add {C}.', '0/1'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Token Creature — Eldrazi Spawn</t>
+          <t>('Elemental', ['Token Creature — Elemental', '*/*'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sacrifice this creature: Add {C}.</t>
+          <t>('Hellion', ['Token Creature — Hellion', '4/4'])</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0/1</t>
+          <t>('Ooze', ['Token Creature — Ooze', '*/*'])</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Eldrazi Spawn</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Token Creature — Eldrazi Spawn</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Sacrifice this creature: Add {C}.</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Eldrazi Spawn</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Token Creature — Eldrazi Spawn</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Sacrifice this creature: Add {C}.</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Elemental</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Token Creature — Elemental</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>*/*</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Hellion</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Token Creature — Hellion</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4/4</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Ooze</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Token Creature — Ooze</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>*/*</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Tuktuk the Returned</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Token Artifact Creature — Goblin Golem</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Tuktuk the Returned is legendary.</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>5/5</t>
+          <t>('Tuktuk the Returned', ['Token Artifact Creature — Goblin Golem', 'Tuktuk the Returned is legendary.', '5/5'])</t>
         </is>
       </c>
     </row>
